--- a/vt_isq_irc.xlsx
+++ b/vt_isq_irc.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="20490" windowHeight="8340"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -688,41 +691,200 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="24">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFD4444"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -742,9 +904,201 @@
         <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
-    <border/>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
@@ -752,9 +1106,11 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -769,6 +1125,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -780,71 +1137,346 @@
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="180" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="180" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1034,20 +1666,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BN27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="31.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+    <col min="5" max="5" width="103.571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="1:66">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1888,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:66">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -1258,7 +1899,7 @@
         <v>67</v>
       </c>
       <c r="D2" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>68</v>
@@ -1278,8 +1919,8 @@
       <c r="J2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="4">
-        <v>180.0</v>
+      <c r="K2" s="7">
+        <v>180</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>73</v>
@@ -1311,16 +1952,16 @@
       <c r="U2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
       <c r="AA2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="6">
-        <v>45190.355671296296</v>
+      <c r="AB2" s="10">
+        <v>45190.3556712963</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>80</v>
@@ -1343,215 +1984,215 @@
       <c r="AI2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP2" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="AR2" s="6">
-        <v>45191.527407407404</v>
-      </c>
-      <c r="AS2" s="6">
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP2" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="10">
+        <v>45191.5274074074</v>
+      </c>
+      <c r="AS2" s="10">
         <v>45193.38875</v>
       </c>
-      <c r="AT2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="AU2" s="4">
-        <v>181.0</v>
-      </c>
-      <c r="AV2" s="4">
-        <v>181.0</v>
-      </c>
-      <c r="AW2" s="5"/>
+      <c r="AT2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>181</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>181</v>
+      </c>
+      <c r="AW2" s="3"/>
       <c r="AX2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
       <c r="BB2" s="3">
-        <v>600.0</v>
-      </c>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
+        <v>600</v>
+      </c>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
       <c r="BI2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" customHeight="1" spans="1:66">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="7">
-        <v>53.0</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="4">
+        <v>53</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K3" s="8">
-        <v>180.0</v>
-      </c>
-      <c r="L3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="7" t="s">
+      <c r="S3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AB3" s="10">
-        <v>45190.37480324074</v>
-      </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AB3" s="11">
+        <v>45190.3748032407</v>
+      </c>
+      <c r="AC3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AI3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="10">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP3" s="10">
-        <v>45192.50815972222</v>
+      <c r="AI3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="11">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP3" s="11">
+        <v>45192.5081597222</v>
       </c>
       <c r="AQ3" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AR3" s="10">
-        <v>45190.414675925924</v>
-      </c>
-      <c r="AS3" s="10">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="11">
+        <v>45190.4146759259</v>
+      </c>
+      <c r="AS3" s="11">
         <v>45192.511875</v>
       </c>
       <c r="AT3" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="8">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="AV3" s="8">
-        <v>182.0</v>
-      </c>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AY3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="7">
-        <v>500.0</v>
-      </c>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="7" t="s">
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4">
+        <v>500</v>
+      </c>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
-      <c r="BM3" s="9"/>
-      <c r="BN3" s="9"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:66">
       <c r="A4" s="3" t="s">
         <v>65</v>
       </c>
@@ -1562,9 +2203,9 @@
         <v>90</v>
       </c>
       <c r="D4" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1582,8 +2223,8 @@
       <c r="J4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="4">
-        <v>180.0</v>
+      <c r="K4" s="7">
+        <v>180</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>73</v>
@@ -1615,235 +2256,235 @@
       <c r="U4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="10">
         <v>45190.3753125</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
       <c r="AF4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
       <c r="AI4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP4" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="AR4" s="6">
-        <v>45193.63892361111</v>
-      </c>
-      <c r="AS4" s="6">
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>45193.6389236111</v>
+      </c>
+      <c r="AS4" s="10">
         <v>45193.6415162037</v>
       </c>
-      <c r="AT4" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>183.0</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>183.0</v>
-      </c>
-      <c r="AW4" s="5"/>
+      <c r="AT4" s="7">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>183</v>
+      </c>
+      <c r="AV4" s="7">
+        <v>183</v>
+      </c>
+      <c r="AW4" s="3"/>
       <c r="AX4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
       <c r="BB4" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
       <c r="BI4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    <row r="5" customHeight="1" spans="1:66">
+      <c r="A5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="7">
-        <v>34.0</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="4">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K5" s="8">
-        <v>180.0</v>
-      </c>
-      <c r="L5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="7" t="s">
+      <c r="R5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AB5" s="10">
-        <v>45190.376226851855</v>
-      </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AB5" s="11">
+        <v>45190.3762268519</v>
+      </c>
+      <c r="AC5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="7" t="s">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG5" s="7" t="s">
+      <c r="AG5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="10">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP5" s="10">
-        <v>45192.50815972222</v>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="11">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP5" s="11">
+        <v>45192.5081597222</v>
       </c>
       <c r="AQ5" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="AR5" s="10">
+        <v>5</v>
+      </c>
+      <c r="AR5" s="11">
         <v>45193.518125</v>
       </c>
-      <c r="AS5" s="10">
-        <v>45193.520150462966</v>
+      <c r="AS5" s="11">
+        <v>45193.520150463</v>
       </c>
       <c r="AT5" s="8">
         <v>2.5</v>
       </c>
       <c r="AU5" s="8">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="AV5" s="8">
-        <v>184.0</v>
-      </c>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY5" s="7" t="s">
+      <c r="AY5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="7">
-        <v>200.0</v>
-      </c>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="7" t="s">
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4">
+        <v>200</v>
+      </c>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ5" s="9"/>
-      <c r="BK5" s="9"/>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:66">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -1854,7 +2495,7 @@
         <v>99</v>
       </c>
       <c r="D6" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>100</v>
@@ -1874,8 +2515,8 @@
       <c r="J6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="4">
-        <v>180.0</v>
+      <c r="K6" s="7">
+        <v>180</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>73</v>
@@ -1907,239 +2548,239 @@
       <c r="U6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
       <c r="AA6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="6">
-        <v>45190.37767361111</v>
+      <c r="AB6" s="10">
+        <v>45190.3776736111</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
       <c r="AF6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
       <c r="AI6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP6" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="AR6" s="6">
-        <v>45193.62740740741</v>
-      </c>
-      <c r="AS6" s="6">
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>45193.6274074074</v>
+      </c>
+      <c r="AS6" s="10">
         <v>45193.6319212963</v>
       </c>
-      <c r="AT6" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>185.0</v>
-      </c>
-      <c r="AV6" s="4">
-        <v>185.0</v>
-      </c>
-      <c r="AW6" s="5"/>
+      <c r="AT6" s="7">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>185</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>185</v>
+      </c>
+      <c r="AW6" s="3"/>
       <c r="AX6" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
+      <c r="AZ6" s="3"/>
+      <c r="BA6" s="3"/>
       <c r="BB6" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
       <c r="BI6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
     </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" customHeight="1" spans="1:66">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="7">
-        <v>57.0</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="4">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K7" s="8">
-        <v>180.0</v>
-      </c>
-      <c r="L7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="7" t="s">
+      <c r="S7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="11">
         <v>45190.3840162037</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AD7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AE7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AF7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AI7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="10">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP7" s="10">
-        <v>45192.50815972222</v>
+      <c r="AI7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="11">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP7" s="11">
+        <v>45192.5081597222</v>
       </c>
       <c r="AQ7" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="AR7" s="10">
-        <v>45190.41431712963</v>
-      </c>
-      <c r="AS7" s="10">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="11">
+        <v>45190.4143171296</v>
+      </c>
+      <c r="AS7" s="11">
         <v>45193.37125</v>
       </c>
       <c r="AT7" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AU7" s="8">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="AV7" s="8">
-        <v>186.0</v>
-      </c>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY7" s="7" t="s">
+      <c r="AY7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="7">
-        <v>600.0</v>
-      </c>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="9"/>
-      <c r="BG7" s="9"/>
-      <c r="BH7" s="9"/>
-      <c r="BI7" s="7" t="s">
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4">
+        <v>600</v>
+      </c>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+      <c r="BE7" s="4"/>
+      <c r="BF7" s="4"/>
+      <c r="BG7" s="4"/>
+      <c r="BH7" s="4"/>
+      <c r="BI7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ7" s="9"/>
-      <c r="BK7" s="9"/>
-      <c r="BL7" s="9"/>
-      <c r="BM7" s="9"/>
-      <c r="BN7" s="9"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:66">
       <c r="A8" s="3" t="s">
         <v>65</v>
       </c>
@@ -2150,7 +2791,7 @@
         <v>105</v>
       </c>
       <c r="D8" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>106</v>
@@ -2170,8 +2811,8 @@
       <c r="J8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="4">
-        <v>181.0</v>
+      <c r="K8" s="7">
+        <v>181</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>73</v>
@@ -2203,16 +2844,16 @@
       <c r="U8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AB8" s="6">
-        <v>45190.41732638889</v>
+      <c r="AB8" s="10">
+        <v>45190.4173263889</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>80</v>
@@ -2220,226 +2861,226 @@
       <c r="AD8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AE8" s="5"/>
+      <c r="AE8" s="3"/>
       <c r="AF8" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AH8" s="5"/>
+      <c r="AH8" s="3"/>
       <c r="AI8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP8" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ8" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="AR8" s="6">
-        <v>45190.70716435185</v>
-      </c>
-      <c r="AS8" s="6">
-        <v>45192.86052083333</v>
-      </c>
-      <c r="AT8" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="AU8" s="4">
-        <v>187.0</v>
-      </c>
-      <c r="AV8" s="4">
-        <v>187.0</v>
-      </c>
-      <c r="AW8" s="5"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>4</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>45190.7071643519</v>
+      </c>
+      <c r="AS8" s="10">
+        <v>45192.8605208333</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>7</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>187</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>187</v>
+      </c>
+      <c r="AW8" s="3"/>
       <c r="AX8" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ8" s="5"/>
-      <c r="BA8" s="5"/>
+      <c r="AZ8" s="3"/>
+      <c r="BA8" s="3"/>
       <c r="BB8" s="3">
-        <v>600.0</v>
-      </c>
-      <c r="BC8" s="5"/>
-      <c r="BD8" s="5"/>
-      <c r="BE8" s="5"/>
-      <c r="BF8" s="5"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
+        <v>600</v>
+      </c>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
       <c r="BI8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
-      <c r="BL8" s="5"/>
-      <c r="BM8" s="5"/>
-      <c r="BN8" s="5"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
     </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="9" customHeight="1" spans="1:66">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="7">
-        <v>53.0</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="4">
+        <v>53</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K9" s="8">
-        <v>180.0</v>
-      </c>
-      <c r="L9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="7" t="s">
+      <c r="R9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AB9" s="10">
-        <v>45190.425092592595</v>
-      </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AB9" s="11">
+        <v>45190.4250925926</v>
+      </c>
+      <c r="AC9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AD9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AE9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AF9" s="7" t="s">
+      <c r="AF9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG9" s="7" t="s">
+      <c r="AG9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AH9" s="7" t="s">
+      <c r="AH9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AI9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="10">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP9" s="10">
-        <v>45192.50815972222</v>
+      <c r="AI9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="11">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP9" s="11">
+        <v>45192.5081597222</v>
       </c>
       <c r="AQ9" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="AR9" s="10">
-        <v>45193.43491898148</v>
-      </c>
-      <c r="AS9" s="10">
-        <v>45193.43917824074</v>
+        <v>3</v>
+      </c>
+      <c r="AR9" s="11">
+        <v>45193.4349189815</v>
+      </c>
+      <c r="AS9" s="11">
+        <v>45193.4391782407</v>
       </c>
       <c r="AT9" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AU9" s="8">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="AV9" s="8">
-        <v>188.0</v>
-      </c>
-      <c r="AW9" s="9"/>
-      <c r="AX9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY9" s="7" t="s">
+      <c r="AY9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="9"/>
-      <c r="BB9" s="7">
-        <v>600.0</v>
-      </c>
-      <c r="BC9" s="9"/>
-      <c r="BD9" s="9"/>
-      <c r="BE9" s="9"/>
-      <c r="BF9" s="9"/>
-      <c r="BG9" s="9"/>
-      <c r="BH9" s="9"/>
-      <c r="BI9" s="7" t="s">
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4">
+        <v>600</v>
+      </c>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+      <c r="BE9" s="4"/>
+      <c r="BF9" s="4"/>
+      <c r="BG9" s="4"/>
+      <c r="BH9" s="4"/>
+      <c r="BI9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ9" s="9"/>
-      <c r="BK9" s="9"/>
-      <c r="BL9" s="9"/>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:66">
       <c r="A10" s="3" t="s">
         <v>65</v>
       </c>
@@ -2450,7 +3091,7 @@
         <v>114</v>
       </c>
       <c r="D10" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>111</v>
@@ -2470,8 +3111,8 @@
       <c r="J10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="4">
-        <v>188.0</v>
+      <c r="K10" s="7">
+        <v>188</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>73</v>
@@ -2503,16 +3144,16 @@
       <c r="U10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AB10" s="6">
-        <v>45190.42652777778</v>
+      <c r="AB10" s="10">
+        <v>45190.4265277778</v>
       </c>
       <c r="AC10" s="3" t="s">
         <v>80</v>
@@ -2520,222 +3161,222 @@
       <c r="AD10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AE10" s="5"/>
+      <c r="AE10" s="3"/>
       <c r="AF10" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AH10" s="5"/>
+      <c r="AH10" s="3"/>
       <c r="AI10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP10" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ10" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="AR10" s="6">
-        <v>45190.711747685185</v>
-      </c>
-      <c r="AS10" s="6">
-        <v>45192.860983796294</v>
-      </c>
-      <c r="AT10" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="AU10" s="4">
-        <v>189.0</v>
-      </c>
-      <c r="AV10" s="4">
-        <v>189.0</v>
-      </c>
-      <c r="AW10" s="5"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>4</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>45190.7117476852</v>
+      </c>
+      <c r="AS10" s="10">
+        <v>45192.8609837963</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>7</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>189</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>189</v>
+      </c>
+      <c r="AW10" s="3"/>
       <c r="AX10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
+      <c r="AZ10" s="3"/>
+      <c r="BA10" s="3"/>
       <c r="BB10" s="3">
-        <v>600.0</v>
-      </c>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="5"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
+        <v>600</v>
+      </c>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
       <c r="BI10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ10" s="5"/>
-      <c r="BK10" s="5"/>
-      <c r="BL10" s="5"/>
-      <c r="BM10" s="5"/>
-      <c r="BN10" s="5"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
     </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="11" customHeight="1" spans="1:66">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="7">
-        <v>33.0</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="4">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>119</v>
       </c>
       <c r="K11" s="8">
-        <v>212.0</v>
-      </c>
-      <c r="L11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="7" t="s">
+      <c r="S11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AB11" s="10">
-        <v>45190.450787037036</v>
-      </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AB11" s="11">
+        <v>45190.450787037</v>
+      </c>
+      <c r="AC11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="7" t="s">
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AG11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="10">
-        <v>45190.450787037036</v>
-      </c>
-      <c r="AP11" s="10">
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="11">
+        <v>45190.450787037</v>
+      </c>
+      <c r="AP11" s="11">
         <v>45190.4924537037</v>
       </c>
       <c r="AQ11" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="AR11" s="10">
-        <v>45193.41295138889</v>
-      </c>
-      <c r="AS11" s="10">
-        <v>45193.57255787037</v>
+        <v>5</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>45193.4129513889</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>45193.5725578704</v>
       </c>
       <c r="AT11" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AU11" s="8">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="AV11" s="8">
-        <v>190.0</v>
-      </c>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY11" s="7" t="s">
+      <c r="AY11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="7">
-        <v>200.0</v>
-      </c>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="7" t="s">
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4">
+        <v>200</v>
+      </c>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+      <c r="BE11" s="4"/>
+      <c r="BF11" s="4"/>
+      <c r="BG11" s="4"/>
+      <c r="BH11" s="4"/>
+      <c r="BI11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ11" s="9"/>
-      <c r="BK11" s="9"/>
-      <c r="BL11" s="9"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="9"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:66">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -2746,7 +3387,7 @@
         <v>122</v>
       </c>
       <c r="D12" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>123</v>
@@ -2766,8 +3407,8 @@
       <c r="J12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="4">
-        <v>180.0</v>
+      <c r="K12" s="7">
+        <v>180</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>73</v>
@@ -2799,15 +3440,15 @@
       <c r="U12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="10">
         <v>45190.4819212963</v>
       </c>
       <c r="AC12" s="3" t="s">
@@ -2816,220 +3457,220 @@
       <c r="AD12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE12" s="5"/>
+      <c r="AE12" s="3"/>
       <c r="AF12" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AH12" s="5"/>
+      <c r="AH12" s="3"/>
       <c r="AI12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="6">
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="10">
         <v>45190.4819212963</v>
       </c>
-      <c r="AP12" s="6">
-        <v>45190.52358796296</v>
-      </c>
-      <c r="AQ12" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="AR12" s="6">
-        <v>45190.64650462963</v>
-      </c>
-      <c r="AS12" s="6">
-        <v>45193.52887731481</v>
-      </c>
-      <c r="AT12" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="AU12" s="4">
-        <v>192.0</v>
-      </c>
-      <c r="AV12" s="4">
-        <v>192.0</v>
-      </c>
-      <c r="AW12" s="5"/>
+      <c r="AP12" s="10">
+        <v>45190.523587963</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>20</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>45190.6465046296</v>
+      </c>
+      <c r="AS12" s="10">
+        <v>45193.5288773148</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>15</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>192</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>192</v>
+      </c>
+      <c r="AW12" s="3"/>
       <c r="AX12" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY12" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
       <c r="BI12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="5"/>
-      <c r="BM12" s="5"/>
-      <c r="BN12" s="5"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
     </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="13" customHeight="1" spans="1:66">
+      <c r="A13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="7">
-        <v>53.0</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="4">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K13" s="8">
-        <v>180.0</v>
-      </c>
-      <c r="L13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="7" t="s">
+      <c r="S13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AB13" s="10">
-        <v>45190.48295138889</v>
-      </c>
-      <c r="AC13" s="7" t="s">
+      <c r="AB13" s="11">
+        <v>45190.4829513889</v>
+      </c>
+      <c r="AC13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD13" s="7" t="s">
+      <c r="AD13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="7" t="s">
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG13" s="7" t="s">
+      <c r="AG13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="10">
-        <v>45190.48295138889</v>
-      </c>
-      <c r="AP13" s="10">
-        <v>45190.524618055555</v>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="11">
+        <v>45190.4829513889</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>45190.5246180556</v>
       </c>
       <c r="AQ13" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="AR13" s="10">
-        <v>45191.36585648148</v>
-      </c>
-      <c r="AS13" s="10">
-        <v>45193.51629629629</v>
+        <v>20</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>45191.3658564815</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>45193.5162962963</v>
       </c>
       <c r="AT13" s="8">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AU13" s="8">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="AV13" s="8">
-        <v>193.0</v>
-      </c>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY13" s="7" t="s">
+      <c r="AY13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="7">
-        <v>600.0</v>
-      </c>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
-      <c r="BG13" s="9"/>
-      <c r="BH13" s="9"/>
-      <c r="BI13" s="7" t="s">
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4">
+        <v>600</v>
+      </c>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ13" s="9"/>
-      <c r="BK13" s="9"/>
-      <c r="BL13" s="9"/>
-      <c r="BM13" s="9"/>
-      <c r="BN13" s="9"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:66">
       <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
@@ -3040,7 +3681,7 @@
         <v>129</v>
       </c>
       <c r="D14" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>130</v>
@@ -3060,8 +3701,8 @@
       <c r="J14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K14" s="4">
-        <v>180.0</v>
+      <c r="K14" s="7">
+        <v>180</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>73</v>
@@ -3093,16 +3734,16 @@
       <c r="U14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
       <c r="AA14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB14" s="6">
-        <v>45190.50912037037</v>
+      <c r="AB14" s="10">
+        <v>45190.5091203704</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>80</v>
@@ -3110,218 +3751,218 @@
       <c r="AD14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE14" s="5"/>
+      <c r="AE14" s="3"/>
       <c r="AF14" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AH14" s="5"/>
+      <c r="AH14" s="3"/>
       <c r="AI14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP14" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ14" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="AR14" s="6">
-        <v>45191.31827546296</v>
-      </c>
-      <c r="AS14" s="6">
-        <v>45193.54837962963</v>
-      </c>
-      <c r="AT14" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="AU14" s="4">
-        <v>194.0</v>
-      </c>
-      <c r="AV14" s="4">
-        <v>194.0</v>
-      </c>
-      <c r="AW14" s="5"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>5</v>
+      </c>
+      <c r="AR14" s="10">
+        <v>45191.318275463</v>
+      </c>
+      <c r="AS14" s="10">
+        <v>45193.5483796296</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>5</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>194</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>194</v>
+      </c>
+      <c r="AW14" s="3"/>
       <c r="AX14" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
       <c r="BI14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="5"/>
-      <c r="BL14" s="5"/>
-      <c r="BM14" s="5"/>
-      <c r="BN14" s="5"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
     </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="15" customHeight="1" spans="1:66">
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="7">
-        <v>53.0</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="4">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K15" s="8">
-        <v>180.0</v>
-      </c>
-      <c r="L15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="7" t="s">
+      <c r="S15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AB15" s="10">
-        <v>45190.50951388889</v>
-      </c>
-      <c r="AC15" s="7" t="s">
+      <c r="AB15" s="11">
+        <v>45190.5095138889</v>
+      </c>
+      <c r="AC15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD15" s="7" t="s">
+      <c r="AD15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="7" t="s">
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG15" s="7" t="s">
+      <c r="AG15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="9"/>
-      <c r="AO15" s="10">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP15" s="10">
-        <v>45192.50815972222</v>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="11">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>45192.5081597222</v>
       </c>
       <c r="AQ15" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="AR15" s="10">
-        <v>45191.318020833336</v>
-      </c>
-      <c r="AS15" s="10">
-        <v>45193.547372685185</v>
+        <v>5</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>45191.3180208333</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>45193.5473726852</v>
       </c>
       <c r="AT15" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AU15" s="8">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="AV15" s="8">
-        <v>195.0</v>
-      </c>
-      <c r="AW15" s="9"/>
-      <c r="AX15" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY15" s="7" t="s">
+      <c r="AY15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
-      <c r="BG15" s="9"/>
-      <c r="BH15" s="9"/>
-      <c r="BI15" s="7" t="s">
+      <c r="AZ15" s="4"/>
+      <c r="BA15" s="4"/>
+      <c r="BB15" s="4"/>
+      <c r="BC15" s="4"/>
+      <c r="BD15" s="4"/>
+      <c r="BE15" s="4"/>
+      <c r="BF15" s="4"/>
+      <c r="BG15" s="4"/>
+      <c r="BH15" s="4"/>
+      <c r="BI15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ15" s="9"/>
-      <c r="BK15" s="9"/>
-      <c r="BL15" s="9"/>
-      <c r="BM15" s="9"/>
-      <c r="BN15" s="9"/>
+      <c r="BJ15" s="4"/>
+      <c r="BK15" s="4"/>
+      <c r="BL15" s="4"/>
+      <c r="BM15" s="4"/>
+      <c r="BN15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="1:66">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -3332,7 +3973,7 @@
         <v>135</v>
       </c>
       <c r="D16" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>136</v>
@@ -3352,8 +3993,8 @@
       <c r="J16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="4">
-        <v>123.0</v>
+      <c r="K16" s="7">
+        <v>123</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>73</v>
@@ -3385,16 +4026,16 @@
       <c r="U16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AB16" s="6">
-        <v>45190.541493055556</v>
+      <c r="AB16" s="10">
+        <v>45190.5414930556</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>80</v>
@@ -3402,220 +4043,220 @@
       <c r="AD16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AE16" s="5"/>
+      <c r="AE16" s="3"/>
       <c r="AF16" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AH16" s="5"/>
+      <c r="AH16" s="3"/>
       <c r="AI16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP16" s="6">
-        <v>45191.65199074074</v>
-      </c>
-      <c r="AQ16" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="AR16" s="6">
-        <v>45191.426574074074</v>
-      </c>
-      <c r="AS16" s="6">
-        <v>45191.629155092596</v>
-      </c>
-      <c r="AT16" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="AU16" s="4">
-        <v>197.0</v>
-      </c>
-      <c r="AV16" s="4">
-        <v>197.0</v>
-      </c>
-      <c r="AW16" s="5"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>45191.6519907407</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>4</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>45191.4265740741</v>
+      </c>
+      <c r="AS16" s="10">
+        <v>45191.6291550926</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>3</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>197</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>197</v>
+      </c>
+      <c r="AW16" s="3"/>
       <c r="AX16" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ16" s="5"/>
-      <c r="BA16" s="5"/>
+      <c r="AZ16" s="3"/>
+      <c r="BA16" s="3"/>
       <c r="BB16" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="BC16" s="5"/>
-      <c r="BD16" s="5"/>
-      <c r="BE16" s="5"/>
-      <c r="BF16" s="5"/>
-      <c r="BG16" s="5"/>
-      <c r="BH16" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
       <c r="BI16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ16" s="5"/>
-      <c r="BK16" s="5"/>
-      <c r="BL16" s="5"/>
-      <c r="BM16" s="5"/>
-      <c r="BN16" s="5"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
     </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="17" customHeight="1" spans="1:66">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="4">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="K17" s="8">
-        <v>180.0</v>
-      </c>
-      <c r="L17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="7" t="s">
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="7" t="s">
+      <c r="S17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AB17" s="10">
-        <v>45190.56482638889</v>
-      </c>
-      <c r="AC17" s="7" t="s">
+      <c r="AB17" s="11">
+        <v>45190.5648263889</v>
+      </c>
+      <c r="AC17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD17" s="7" t="s">
+      <c r="AD17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="7" t="s">
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG17" s="7" t="s">
+      <c r="AG17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="9"/>
-      <c r="AO17" s="10">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP17" s="10">
-        <v>45192.50815972222</v>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="11">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP17" s="11">
+        <v>45192.5081597222</v>
       </c>
       <c r="AQ17" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="AR17" s="10">
-        <v>45192.65574074074</v>
-      </c>
-      <c r="AS17" s="10">
-        <v>45193.52956018518</v>
+        <v>4</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>45192.6557407407</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>45193.5295601852</v>
       </c>
       <c r="AT17" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AU17" s="8">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="AV17" s="8">
-        <v>198.0</v>
-      </c>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY17" s="7" t="s">
+      <c r="AY17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ17" s="9"/>
-      <c r="BA17" s="9"/>
-      <c r="BB17" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="9"/>
-      <c r="BG17" s="9"/>
-      <c r="BH17" s="9"/>
-      <c r="BI17" s="7" t="s">
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4">
+        <v>100</v>
+      </c>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ17" s="9"/>
-      <c r="BK17" s="9"/>
-      <c r="BL17" s="9"/>
-      <c r="BM17" s="9"/>
-      <c r="BN17" s="9"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="1:66">
       <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
@@ -3626,7 +4267,7 @@
         <v>142</v>
       </c>
       <c r="D18" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>143</v>
@@ -3646,8 +4287,8 @@
       <c r="J18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K18" s="4">
-        <v>180.0</v>
+      <c r="K18" s="7">
+        <v>180</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>73</v>
@@ -3679,233 +4320,233 @@
       <c r="U18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AB18" s="6">
-        <v>45190.621886574074</v>
+      <c r="AB18" s="10">
+        <v>45190.6218865741</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
       <c r="AF18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
       <c r="AI18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP18" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ18" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="AR18" s="6">
-        <v>45191.32142361111</v>
-      </c>
-      <c r="AS18" s="6">
-        <v>45193.57466435185</v>
-      </c>
-      <c r="AT18" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="AU18" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="AV18" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="AW18" s="5"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ18" s="7">
+        <v>7</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>45191.3214236111</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>45193.5746643519</v>
+      </c>
+      <c r="AT18" s="7">
+        <v>7</v>
+      </c>
+      <c r="AU18" s="7">
+        <v>200</v>
+      </c>
+      <c r="AV18" s="7">
+        <v>200</v>
+      </c>
+      <c r="AW18" s="3"/>
       <c r="AX18" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ18" s="5"/>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="5"/>
-      <c r="BE18" s="5"/>
-      <c r="BF18" s="5"/>
-      <c r="BG18" s="5"/>
-      <c r="BH18" s="5"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
       <c r="BI18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ18" s="5"/>
-      <c r="BK18" s="5"/>
-      <c r="BL18" s="5"/>
-      <c r="BM18" s="5"/>
-      <c r="BN18" s="5"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
     </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="19" customHeight="1" spans="1:66">
+      <c r="A19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="4">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="4" t="s">
         <v>148</v>
       </c>
       <c r="K19" s="8">
-        <v>16.0</v>
-      </c>
-      <c r="L19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="7" t="s">
+      <c r="R19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AB19" s="10">
-        <v>45190.64921296296</v>
-      </c>
-      <c r="AC19" s="7" t="s">
+      <c r="AB19" s="11">
+        <v>45190.649212963</v>
+      </c>
+      <c r="AC19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD19" s="7" t="s">
+      <c r="AD19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="7" t="s">
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG19" s="7" t="s">
+      <c r="AG19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="9"/>
-      <c r="AO19" s="10">
-        <v>45190.64921296296</v>
-      </c>
-      <c r="AP19" s="10">
-        <v>45190.69087962963</v>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="11">
+        <v>45190.649212963</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>45190.6908796296</v>
       </c>
       <c r="AQ19" s="8">
         <v>2.5</v>
       </c>
-      <c r="AR19" s="10">
-        <v>45191.34836805556</v>
-      </c>
-      <c r="AS19" s="10">
-        <v>45192.39761574074</v>
+      <c r="AR19" s="11">
+        <v>45191.3483680556</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>45192.3976157407</v>
       </c>
       <c r="AT19" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AU19" s="8">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="AV19" s="8">
-        <v>201.0</v>
-      </c>
-      <c r="AW19" s="9"/>
-      <c r="AX19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY19" s="7" t="s">
+      <c r="AY19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ19" s="9"/>
-      <c r="BA19" s="9"/>
-      <c r="BB19" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="BC19" s="9"/>
-      <c r="BD19" s="9"/>
-      <c r="BE19" s="9"/>
-      <c r="BF19" s="9"/>
-      <c r="BG19" s="9"/>
-      <c r="BH19" s="9"/>
-      <c r="BI19" s="7" t="s">
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4">
+        <v>100</v>
+      </c>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ19" s="9"/>
-      <c r="BK19" s="9"/>
-      <c r="BL19" s="9"/>
-      <c r="BM19" s="9"/>
-      <c r="BN19" s="9"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="1:66">
       <c r="A20" s="3" t="s">
         <v>65</v>
       </c>
@@ -3916,7 +4557,7 @@
         <v>149</v>
       </c>
       <c r="D20" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>150</v>
@@ -3936,8 +4577,8 @@
       <c r="J20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="4">
-        <v>187.0</v>
+      <c r="K20" s="7">
+        <v>187</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>73</v>
@@ -3969,16 +4610,16 @@
       <c r="U20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB20" s="6">
-        <v>45190.70369212963</v>
+      <c r="AB20" s="10">
+        <v>45190.7036921296</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>80</v>
@@ -3986,222 +4627,222 @@
       <c r="AD20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AE20" s="5"/>
+      <c r="AE20" s="3"/>
       <c r="AF20" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="AH20" s="5"/>
+      <c r="AH20" s="3"/>
       <c r="AI20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="6">
-        <v>45190.70369212963</v>
-      </c>
-      <c r="AP20" s="6">
-        <v>45190.745358796295</v>
-      </c>
-      <c r="AQ20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="AR20" s="6">
-        <v>45191.534907407404</v>
-      </c>
-      <c r="AS20" s="6">
-        <v>45192.85434027778</v>
-      </c>
-      <c r="AT20" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="AU20" s="4">
-        <v>202.0</v>
-      </c>
-      <c r="AV20" s="4">
-        <v>202.0</v>
-      </c>
-      <c r="AW20" s="5"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="10">
+        <v>45190.7036921296</v>
+      </c>
+      <c r="AP20" s="10">
+        <v>45190.7453587963</v>
+      </c>
+      <c r="AQ20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="10">
+        <v>45191.5349074074</v>
+      </c>
+      <c r="AS20" s="10">
+        <v>45192.8543402778</v>
+      </c>
+      <c r="AT20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="7">
+        <v>202</v>
+      </c>
+      <c r="AV20" s="7">
+        <v>202</v>
+      </c>
+      <c r="AW20" s="3"/>
       <c r="AX20" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ20" s="5"/>
-      <c r="BA20" s="5"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
       <c r="BB20" s="3">
-        <v>600.0</v>
-      </c>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="5"/>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5"/>
-      <c r="BH20" s="5"/>
+        <v>600</v>
+      </c>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
       <c r="BI20" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ20" s="5"/>
-      <c r="BK20" s="5"/>
-      <c r="BL20" s="5"/>
-      <c r="BM20" s="5"/>
-      <c r="BN20" s="5"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
     </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="7" t="s">
+    <row r="21" customHeight="1" spans="1:66">
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="7">
-        <v>57.0</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="4">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="4" t="s">
         <v>114</v>
       </c>
       <c r="K21" s="8">
-        <v>189.0</v>
-      </c>
-      <c r="L21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="7" t="s">
+      <c r="R21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AB21" s="10">
-        <v>45190.714108796295</v>
-      </c>
-      <c r="AC21" s="7" t="s">
+      <c r="AB21" s="11">
+        <v>45190.7141087963</v>
+      </c>
+      <c r="AC21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD21" s="7" t="s">
+      <c r="AD21" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="7" t="s">
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG21" s="7" t="s">
+      <c r="AG21" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="10">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP21" s="10">
-        <v>45192.50815972222</v>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="11">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>45192.5081597222</v>
       </c>
       <c r="AQ21" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AR21" s="10">
-        <v>45191.54025462963</v>
-      </c>
-      <c r="AS21" s="10">
-        <v>45192.85760416667</v>
+        <v>1</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>45191.5402546296</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>45192.8576041667</v>
       </c>
       <c r="AT21" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="8">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="AV21" s="8">
-        <v>203.0</v>
-      </c>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY21" s="7" t="s">
+      <c r="AY21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="7">
-        <v>600.0</v>
-      </c>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="7" t="s">
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4">
+        <v>600</v>
+      </c>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
-      <c r="BL21" s="9"/>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="9"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="1:66">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -4212,7 +4853,7 @@
         <v>156</v>
       </c>
       <c r="D22" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>157</v>
@@ -4232,8 +4873,8 @@
       <c r="J22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K22" s="4">
-        <v>180.0</v>
+      <c r="K22" s="7">
+        <v>180</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>73</v>
@@ -4265,233 +4906,233 @@
       <c r="U22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AB22" s="6">
-        <v>45191.32289351852</v>
+      <c r="AB22" s="10">
+        <v>45191.3228935185</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
       <c r="AF22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
       <c r="AI22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP22" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ22" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="AR22" s="6">
-        <v>45191.326689814814</v>
-      </c>
-      <c r="AS22" s="6">
-        <v>45193.57635416667</v>
-      </c>
-      <c r="AT22" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="AU22" s="4">
-        <v>204.0</v>
-      </c>
-      <c r="AV22" s="4">
-        <v>204.0</v>
-      </c>
-      <c r="AW22" s="5"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP22" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>3</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>45191.3266898148</v>
+      </c>
+      <c r="AS22" s="10">
+        <v>45193.5763541667</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>3</v>
+      </c>
+      <c r="AU22" s="7">
+        <v>204</v>
+      </c>
+      <c r="AV22" s="7">
+        <v>204</v>
+      </c>
+      <c r="AW22" s="3"/>
       <c r="AX22" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="5"/>
-      <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BH22" s="5"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
       <c r="BI22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ22" s="5"/>
-      <c r="BK22" s="5"/>
-      <c r="BL22" s="5"/>
-      <c r="BM22" s="5"/>
-      <c r="BN22" s="5"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
     </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="7" t="s">
+    <row r="23" customHeight="1" spans="1:66">
+      <c r="A23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="7">
-        <v>53.0</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="4">
+        <v>53</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="4" t="s">
         <v>148</v>
       </c>
       <c r="K23" s="8">
-        <v>16.0</v>
-      </c>
-      <c r="L23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="S23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="7" t="s">
+      <c r="S23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AB23" s="10">
-        <v>45191.35041666667</v>
-      </c>
-      <c r="AC23" s="7" t="s">
+      <c r="AB23" s="11">
+        <v>45191.3504166667</v>
+      </c>
+      <c r="AC23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD23" s="7" t="s">
+      <c r="AD23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="7" t="s">
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG23" s="7" t="s">
+      <c r="AG23" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="10">
-        <v>45191.35041666667</v>
-      </c>
-      <c r="AP23" s="10">
-        <v>45191.39208333333</v>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="11">
+        <v>45191.3504166667</v>
+      </c>
+      <c r="AP23" s="11">
+        <v>45191.3920833333</v>
       </c>
       <c r="AQ23" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="AR23" s="10">
-        <v>45192.26241898148</v>
-      </c>
-      <c r="AS23" s="10">
-        <v>45192.470983796295</v>
+        <v>6</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>45192.2624189815</v>
+      </c>
+      <c r="AS23" s="11">
+        <v>45192.4709837963</v>
       </c>
       <c r="AT23" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AU23" s="8">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="AV23" s="8">
-        <v>205.0</v>
-      </c>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY23" s="7" t="s">
+      <c r="AY23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
-      <c r="BG23" s="9"/>
-      <c r="BH23" s="9"/>
-      <c r="BI23" s="7" t="s">
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4">
+        <v>100</v>
+      </c>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ23" s="9"/>
-      <c r="BK23" s="9"/>
-      <c r="BL23" s="9"/>
-      <c r="BM23" s="9"/>
-      <c r="BN23" s="9"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="1:66">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
@@ -4502,7 +5143,7 @@
         <v>162</v>
       </c>
       <c r="D24" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>163</v>
@@ -4522,8 +5163,8 @@
       <c r="J24" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="4">
-        <v>135.0</v>
+      <c r="K24" s="7">
+        <v>135</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>73</v>
@@ -4555,233 +5196,233 @@
       <c r="U24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="AB24" s="6">
-        <v>45191.357719907406</v>
+      <c r="AB24" s="10">
+        <v>45191.3577199074</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
       <c r="AF24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
       <c r="AI24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP24" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ24" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="AR24" s="6">
-        <v>45191.361979166664</v>
-      </c>
-      <c r="AS24" s="6">
-        <v>45193.578518518516</v>
-      </c>
-      <c r="AT24" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="AU24" s="4">
-        <v>206.0</v>
-      </c>
-      <c r="AV24" s="4">
-        <v>206.0</v>
-      </c>
-      <c r="AW24" s="5"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ24" s="7">
+        <v>24</v>
+      </c>
+      <c r="AR24" s="10">
+        <v>45191.3619791667</v>
+      </c>
+      <c r="AS24" s="10">
+        <v>45193.5785185185</v>
+      </c>
+      <c r="AT24" s="7">
+        <v>24</v>
+      </c>
+      <c r="AU24" s="7">
+        <v>206</v>
+      </c>
+      <c r="AV24" s="7">
+        <v>206</v>
+      </c>
+      <c r="AW24" s="3"/>
       <c r="AX24" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
       <c r="BI24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ24" s="5"/>
-      <c r="BK24" s="5"/>
-      <c r="BL24" s="5"/>
-      <c r="BM24" s="5"/>
-      <c r="BN24" s="5"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
     </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="25" customHeight="1" spans="1:66">
+      <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="7">
-        <v>38.0</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="4">
+        <v>38</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="4" t="s">
         <v>170</v>
       </c>
       <c r="K25" s="8">
-        <v>106.0</v>
-      </c>
-      <c r="L25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="T25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="7" t="s">
+      <c r="R25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AB25" s="10">
-        <v>45191.41853009259</v>
-      </c>
-      <c r="AC25" s="7" t="s">
+      <c r="AB25" s="11">
+        <v>45191.4185300926</v>
+      </c>
+      <c r="AC25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD25" s="7" t="s">
+      <c r="AD25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="7" t="s">
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AG25" s="7" t="s">
+      <c r="AG25" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="9"/>
-      <c r="AO25" s="10">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP25" s="10">
-        <v>45191.46019675926</v>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="11">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP25" s="11">
+        <v>45191.4601967593</v>
       </c>
       <c r="AQ25" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="AR25" s="10">
-        <v>45191.44458333333</v>
-      </c>
-      <c r="AS25" s="10">
-        <v>45191.54099537037</v>
+        <v>2</v>
+      </c>
+      <c r="AR25" s="11">
+        <v>45191.4445833333</v>
+      </c>
+      <c r="AS25" s="11">
+        <v>45191.5409953704</v>
       </c>
       <c r="AT25" s="8">
         <v>2.5</v>
       </c>
       <c r="AU25" s="8">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="AV25" s="8">
-        <v>208.0</v>
-      </c>
-      <c r="AW25" s="9"/>
-      <c r="AX25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AY25" s="7" t="s">
+      <c r="AY25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AZ25" s="9"/>
-      <c r="BA25" s="9"/>
-      <c r="BB25" s="7">
-        <v>100.0</v>
-      </c>
-      <c r="BC25" s="9"/>
-      <c r="BD25" s="9"/>
-      <c r="BE25" s="9"/>
-      <c r="BF25" s="9"/>
-      <c r="BG25" s="9"/>
-      <c r="BH25" s="9"/>
-      <c r="BI25" s="7" t="s">
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4">
+        <v>100</v>
+      </c>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ25" s="9"/>
-      <c r="BK25" s="9"/>
-      <c r="BL25" s="9"/>
-      <c r="BM25" s="9"/>
-      <c r="BN25" s="9"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="1:66">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -4792,7 +5433,7 @@
         <v>171</v>
       </c>
       <c r="D26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>172</v>
@@ -4812,8 +5453,8 @@
       <c r="J26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="4">
-        <v>24.0</v>
+      <c r="K26" s="7">
+        <v>24</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>73</v>
@@ -4845,16 +5486,16 @@
       <c r="U26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
       <c r="AA26" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AB26" s="6">
-        <v>45191.592199074075</v>
+      <c r="AB26" s="10">
+        <v>45191.5921990741</v>
       </c>
       <c r="AC26" s="3" t="s">
         <v>80</v>
@@ -4862,222 +5503,223 @@
       <c r="AD26" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AE26" s="5"/>
+      <c r="AE26" s="3"/>
       <c r="AF26" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG26" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AH26" s="5"/>
+      <c r="AH26" s="3"/>
       <c r="AI26" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="6">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP26" s="6">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ26" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="AR26" s="6">
-        <v>45192.39503472222</v>
-      </c>
-      <c r="AS26" s="6">
-        <v>45193.656168981484</v>
-      </c>
-      <c r="AT26" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="AU26" s="4">
-        <v>209.0</v>
-      </c>
-      <c r="AV26" s="4">
-        <v>209.0</v>
-      </c>
-      <c r="AW26" s="5"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="10">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ26" s="7">
+        <v>8</v>
+      </c>
+      <c r="AR26" s="10">
+        <v>45192.3950347222</v>
+      </c>
+      <c r="AS26" s="10">
+        <v>45193.6561689815</v>
+      </c>
+      <c r="AT26" s="7">
+        <v>8</v>
+      </c>
+      <c r="AU26" s="7">
+        <v>209</v>
+      </c>
+      <c r="AV26" s="7">
+        <v>209</v>
+      </c>
+      <c r="AW26" s="3"/>
       <c r="AX26" s="3" t="s">
         <v>82</v>
       </c>
       <c r="AY26" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AZ26" s="5"/>
-      <c r="BA26" s="5"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
       <c r="BB26" s="3">
-        <v>200.0</v>
-      </c>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="5"/>
-      <c r="BE26" s="5"/>
-      <c r="BF26" s="5"/>
-      <c r="BG26" s="5"/>
-      <c r="BH26" s="5"/>
+        <v>200</v>
+      </c>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
       <c r="BI26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BJ26" s="5"/>
-      <c r="BK26" s="5"/>
-      <c r="BL26" s="5"/>
-      <c r="BM26" s="5"/>
-      <c r="BN26" s="5"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
     </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="11" t="s">
+    <row r="27" customHeight="1" spans="1:66">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="11">
-        <v>26.0</v>
-      </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="5">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="K27" s="12">
-        <v>40.0</v>
-      </c>
-      <c r="L27" s="11" t="s">
+      <c r="K27" s="9">
+        <v>40</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="S27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="11" t="s">
+      <c r="S27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AB27" s="14">
-        <v>45191.596180555556</v>
-      </c>
-      <c r="AC27" s="11" t="s">
+      <c r="AB27" s="12">
+        <v>45191.5961805556</v>
+      </c>
+      <c r="AC27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AD27" s="11" t="s">
+      <c r="AD27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="11" t="s">
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AG27" s="11" t="s">
+      <c r="AG27" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="14">
-        <v>45180.62986111111</v>
-      </c>
-      <c r="AP27" s="14">
-        <v>45192.50815972222</v>
-      </c>
-      <c r="AQ27" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="AR27" s="14">
-        <v>45193.41238425926</v>
-      </c>
-      <c r="AS27" s="14">
-        <v>45193.568877314814</v>
-      </c>
-      <c r="AT27" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="AU27" s="12">
-        <v>210.0</v>
-      </c>
-      <c r="AV27" s="12">
-        <v>210.0</v>
-      </c>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="11" t="s">
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="12">
+        <v>45180.6298611111</v>
+      </c>
+      <c r="AP27" s="12">
+        <v>45192.5081597222</v>
+      </c>
+      <c r="AQ27" s="9">
+        <v>5</v>
+      </c>
+      <c r="AR27" s="12">
+        <v>45193.4123842593</v>
+      </c>
+      <c r="AS27" s="12">
+        <v>45193.5688773148</v>
+      </c>
+      <c r="AT27" s="9">
+        <v>6</v>
+      </c>
+      <c r="AU27" s="9">
+        <v>210</v>
+      </c>
+      <c r="AV27" s="9">
+        <v>210</v>
+      </c>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AY27" s="11" t="s">
+      <c r="AY27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="13"/>
-      <c r="BE27" s="13"/>
-      <c r="BF27" s="13"/>
-      <c r="BG27" s="13"/>
-      <c r="BH27" s="13"/>
-      <c r="BI27" s="11" t="s">
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5">
+        <v>100</v>
+      </c>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="BJ27" s="13"/>
-      <c r="BK27" s="13"/>
-      <c r="BL27" s="13"/>
-      <c r="BM27" s="13"/>
-      <c r="BN27" s="13"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>